--- a/Signal Dataset.xlsx
+++ b/Signal Dataset.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01.03\Desktop\New folder\numpy_tuto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01.03\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9B6DFD-D454-4007-AC04-1A8BE626DB47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44156E20-A263-4A5C-B636-77DC4060FE3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{52D1D6F1-677B-49D0-8E9F-4A431CE2E792}"/>
   </bookViews>
